--- a/data/trans_bre/P9_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 7,36</t>
+          <t>-9,95; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 8,1</t>
+          <t>-8,8; 16,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 13,88</t>
+          <t>-15,08; 26,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 15,6</t>
+          <t>-13,96; 33,89</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 6,1</t>
+          <t>-7,6; 15,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 8,49</t>
+          <t>-8,01; 15,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 11,69</t>
+          <t>-12,69; 34,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 17,48</t>
+          <t>-13,6; 35,88</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>13,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>40,39%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 24,88</t>
+          <t>-14,42; 42,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 28,52</t>
+          <t>-14,14; 43,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 84,86</t>
+          <t>-23,95; 211,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 99,65</t>
+          <t>-23,94; 233,58</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,75</t>
+          <t>-4,07; 12,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 6,51</t>
+          <t>-3,62; 13,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 9,16</t>
+          <t>-6,86; 24,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 12,91</t>
+          <t>-6,35; 27,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8249744943625736</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.297071603673785</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.01354070599479038</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.05582640869283038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 13,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 16,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 26,14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; 33,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.945932743691245</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.848659514511902</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1507888440822369</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1202484321144802</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.42494117602539</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.25851384016815</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.2613831710999804</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3175038535925148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 15,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 15,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 34,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,6; 35,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.487783342687767</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.529383837725829</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.06584886911061284</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.04735885310717992</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>36,55%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>40,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.599024911495304</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.49194449284236</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1268862094287256</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1635252380317568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 42,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 43,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,95; 211,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,94; 233,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.78662935761786</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.54868619682437</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3446933520623222</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3200734567982315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>13.48058473290847</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.68624789967978</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.3654990562125122</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3672255964122547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 12,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 13,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 24,92</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 27,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.41774052262</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.40147014653147</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2394951761482437</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2516609677664702</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>42.15089826756321</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>43.72842245013289</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.114764406721683</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.279991199466631</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.516567152583605</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.181358354236653</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0639210610935867</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.07677432310825485</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.068034080074408</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.977318876307182</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06858238118887298</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.06425116750088951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.46747318570134</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.91168053461523</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2492038974458898</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2656345800384632</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
